--- a/biology/Botanique/Lindelofia/Lindelofia.xlsx
+++ b/biology/Botanique/Lindelofia/Lindelofia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindelofia est un  genre de plantes de la famille des Boraginacées. Il est originaire d'Asie.
 Nom russe : Линделофия
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plantes vivaces herbacées érigées.
 Les feuilles sont entières et alternes. Les feuilles basales sont longuement pétiolées.
@@ -547,14 +561,16 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre appartient à la sous-famille des Boraginoideae.
-Johann Georg Christian Lehmann décrit le genre en 1850 sur la base de deux espèces, toutes deux primitivement classée dans le genre Cynoglossum, la première décrite par John Lindley - Lindelofia anchusoides (Lindl.) Lehm. -, l'autre Lindelofia spectabilis Lehm., cependant déjà décrite par George Bentham mais à partir d'un autre exemplaire sous le nom de Cynoglossum longiflora Benth. (il s'agit donc d'un synonyme)[1]. Il le dédie à Friedrich von Lindelof, (1794 - 1882), homme politique allemand décédé à Darmstadt et ministre de la justice du Grand-duché de Hesse[2].
-En 1852, Gottlieb Wilhelm T.G. Bischoff nomme un genre Anchusopsis avec une unique espèce : Anchusopsis longiflora (Benth.) Bisch. sur la base de Cynoglossum longiflorum Benth.; cette unique espèce deviendra Lindelofia longiflora[3].
-Pierre Edmond Boissier, en 1848 et 1875, décrit des espèces dans divers genres existants et crée deux nouveaux genres - Cyphomattia et Paracaryum - dans la famille, espèces dont, ultérieurement, quelques-unes seront reversées dans le genre Lindelofia[4].
+Johann Georg Christian Lehmann décrit le genre en 1850 sur la base de deux espèces, toutes deux primitivement classée dans le genre Cynoglossum, la première décrite par John Lindley - Lindelofia anchusoides (Lindl.) Lehm. -, l'autre Lindelofia spectabilis Lehm., cependant déjà décrite par George Bentham mais à partir d'un autre exemplaire sous le nom de Cynoglossum longiflora Benth. (il s'agit donc d'un synonyme). Il le dédie à Friedrich von Lindelof, (1794 - 1882), homme politique allemand décédé à Darmstadt et ministre de la justice du Grand-duché de Hesse.
+En 1852, Gottlieb Wilhelm T.G. Bischoff nomme un genre Anchusopsis avec une unique espèce : Anchusopsis longiflora (Benth.) Bisch. sur la base de Cynoglossum longiflorum Benth.; cette unique espèce deviendra Lindelofia longiflora.
+Pierre Edmond Boissier, en 1848 et 1875, décrit des espèces dans divers genres existants et crée deux nouveaux genres - Cyphomattia et Paracaryum - dans la famille, espèces dont, ultérieurement, quelques-unes seront reversées dans le genre Lindelofia.
 August Brand procède à deux révision du genre en 1915 et 1921 avec tant des ajouts d'espèces classées dans d'autres genres que des retraits d'autres (en particulier de manière incompréhensible Lindelofia anchusoides - espèce type - dont il fait l'espèce type du genre Adelocaryum : Adelocaryum anchusoides (Lindl.) Brand).
-Mikhail Grigoríevič Popov contribue, en 1953, à une revue complète du genre[5].
+Mikhail Grigoríevič Popov contribue, en 1953, à une revue complète du genre.
 Ce genre reste très proche de nombreux autres de la sous-famille (Cynoglossum, Mattia, Paracaryum, Solenanthus…), proximité occasionnant une synonymie importante liée à des reclassements successifs.
 </t>
         </is>
@@ -584,7 +600,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des espèces est issue des index IPNI (The International Plant Names Index) et Tropicos (Index du jardin botanique du Missouri) à la date de novembre 2011. Les espèces conservées dans le genre sont en caractère gras :
 Lindelofia albida (Wettst. exStapf) Brand (1921) : voir Cynoglossum albidum (Wettst. ex Stapf) Greuter &amp; Burdet - synonymes : Mattia albida Wettst. ex Stapf, Rindera albida (Wettst. ex Stapf) Kusn.
